--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/ValueSet-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
